--- a/мандаты.xlsx
+++ b/мандаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirilldemidov/PycharmProjects/elect_gd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C880CE37-933B-0742-B86D-B68550D0D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B55CE-CA18-F145-BA77-7FDC128BFBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{0C77654D-1EC5-BE4C-B9E1-B2D57D067602}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="метод Хейра" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'метод Хейра'!$A$1:$F$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'метод Хейра'!$A$5:$F$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72FBF6F-09D1-E74A-9D0B-7D3E9B587E35}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,447 +514,343 @@
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>C24/B3</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>29</v>
       </c>
-      <c r="C2">
-        <f>IFERROR(B2*1500/100, "")</f>
-        <v>435</v>
-      </c>
-      <c r="D2">
-        <f>C2/$J$7</f>
-        <v>93.214285714285708</v>
-      </c>
-      <c r="E2">
-        <f>TRUNC(D2)</f>
-        <v>93</v>
-      </c>
-      <c r="F2">
-        <f>D2-E2</f>
-        <v>0.2142857142857082</v>
-      </c>
-      <c r="H2">
-        <f>E2+G2</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <f>IFERROR(B3*1500/100, "")</f>
-        <v>210</v>
-      </c>
-      <c r="D3">
-        <f>C3/$J$7</f>
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <f>TRUNC(D3)</f>
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <f>D3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H19" si="0">E3+G3</f>
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <f>IFERROR(B4*1500/100, "")</f>
-        <v>165</v>
-      </c>
-      <c r="D4">
-        <f>C4/$J$7</f>
-        <v>35.357142857142854</v>
-      </c>
-      <c r="E4">
-        <f>TRUNC(D4)</f>
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <f>D4-E4</f>
-        <v>0.3571428571428541</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f>IFERROR(B5*1500/100, "")</f>
-        <v>75</v>
-      </c>
-      <c r="D5">
-        <f>C5/$J$7</f>
-        <v>16.071428571428569</v>
-      </c>
-      <c r="E5">
-        <f>TRUNC(D5)</f>
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <f>D5-E5</f>
-        <v>7.1428571428569398E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
       <c r="C6">
         <f>IFERROR(B6*1500/100, "")</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="D6">
-        <f>C6/$J$7</f>
-        <v>0</v>
+        <f>C6/$B$4</f>
+        <v>93.214285714285708</v>
       </c>
       <c r="E6">
         <f>TRUNC(D6)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <f>D6-E6</f>
-        <v>0</v>
+        <v>0.2142857142857082</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E6+G6</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
       </c>
       <c r="C7">
         <f>IFERROR(B7*1500/100, "")</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D7">
-        <f>C7/$J$7</f>
-        <v>0</v>
+        <f t="shared" ref="D7:D24" si="0">C7/$B$4</f>
+        <v>45</v>
       </c>
       <c r="E7">
         <f>TRUNC(D7)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <f>D7-E7</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <f>C20/J5</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H7:H23" si="1">E7+G7</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
       </c>
       <c r="C8">
         <f>IFERROR(B8*1500/100, "")</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8">
-        <f>C8/$J$7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35.357142857142854</v>
       </c>
       <c r="E8">
         <f>TRUNC(D8)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <f>D8-E8</f>
-        <v>0</v>
+        <v>0.3571428571428541</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9">
         <f>IFERROR(B9*1500/100, "")</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <f>C9/$J$7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>16.071428571428569</v>
       </c>
       <c r="E9">
         <f>TRUNC(D9)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <f>D9-E9</f>
-        <v>0</v>
+        <v>7.1428571428569398E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10">
         <f>IFERROR(B10*1500/100, "")</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f>C10/$J$7</f>
-        <v>9.6428571428571423</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>TRUNC(D10)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>D10-E10</f>
-        <v>0.64285714285714235</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
       <c r="C11">
         <f>IFERROR(B11*1500/100, "")</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f>C11/$J$7</f>
-        <v>9.6428571428571423</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E11">
         <f>TRUNC(D11)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f>D11-E11</f>
-        <v>0.64285714285714235</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <f>IFERROR(B12*1500/100, "")</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <f>C12/$J$7</f>
-        <v>3.214285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E12">
         <f>TRUNC(D12)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f>D12-E12</f>
-        <v>0.21428571428571397</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <f>IFERROR(B13*1500/100, "")</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <f>C13/$J$7</f>
-        <v>3.214285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E13">
         <f>TRUNC(D13)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f>D13-E13</f>
-        <v>0.21428571428571397</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <f>IFERROR(B14*1500/100, "")</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <f>C14/$J$7</f>
-        <v>3.214285714285714</v>
+        <f t="shared" si="0"/>
+        <v>9.6428571428571423</v>
       </c>
       <c r="E14">
         <f>TRUNC(D14)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <f>D14-E14</f>
-        <v>0.21428571428571397</v>
+        <v>0.64285714285714235</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <f>IFERROR(B15*1500/100, "")</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <f>C15/$J$7</f>
-        <v>3.214285714285714</v>
+        <f t="shared" si="0"/>
+        <v>9.6428571428571423</v>
       </c>
       <c r="E15">
         <f>TRUNC(D15)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <f>D15-E15</f>
-        <v>0.21428571428571397</v>
+        <v>0.64285714285714235</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -964,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <f>C16/$J$7</f>
+        <f t="shared" si="0"/>
         <v>3.214285714285714</v>
       </c>
       <c r="E16">
@@ -976,126 +872,238 @@
         <v>0.21428571428571397</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f>IFERROR(B17*1500/100, "")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <f>C17/$J$7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.214285714285714</v>
       </c>
       <c r="E17">
         <f>TRUNC(D17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <f>D17-E17</f>
-        <v>0</v>
+        <v>0.21428571428571397</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <f>IFERROR(B18*1500/100, "")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <f>C18/$J$7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.214285714285714</v>
       </c>
       <c r="E18">
         <f>TRUNC(D18)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <f>D18-E18</f>
-        <v>0</v>
+        <v>0.21428571428571397</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <f>IFERROR(B19*1500/100, "")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <f>C19/$J$7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.214285714285714</v>
       </c>
       <c r="E19">
         <f>TRUNC(D19)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <f>D19-E19</f>
-        <v>0</v>
+        <v>0.21428571428571397</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B20">
-        <f>SUM(B2:B19)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>IFERROR(B20*1500/100, "")</f>
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3.214285714285714</v>
+      </c>
+      <c r="E20">
+        <f>TRUNC(D20)</f>
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f>D20-E20</f>
+        <v>0.21428571428571397</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>IFERROR(B21*1500/100, "")</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>TRUNC(D21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>D21-E21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>IFERROR(B22*1500/100, "")</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>TRUNC(D22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>D22-E22</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>IFERROR(B23*1500/100, "")</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>TRUNC(D23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>D23-E23</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>SUM(B6:B23)</f>
         <v>70</v>
       </c>
-      <c r="C20">
-        <f>SUM(C1:C16)</f>
+      <c r="C24">
+        <f>SUM(C5:C20)</f>
         <v>1050</v>
       </c>
-      <c r="D20">
-        <f>SUM(D2:D19)</f>
-        <v>225.00000000000006</v>
-      </c>
-      <c r="E20">
-        <f>SUM(E2:E19)</f>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>224.99999999999997</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E6:E23)</f>
         <v>222</v>
       </c>
-      <c r="F20">
-        <f>SUM(F2:F19)</f>
+      <c r="F24">
+        <f>SUM(F6:F23)</f>
         <v>2.9999999999999862</v>
       </c>
-      <c r="G20">
-        <f t="shared" ref="G20:H20" si="1">SUM(G2:G19)</f>
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
+      <c r="G24">
+        <f t="shared" ref="G24:H24" si="2">SUM(G6:G23)</f>
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F20" xr:uid="{F72FBF6F-09D1-E74A-9D0B-7D3E9B587E35}"/>
+  <autoFilter ref="A5:F24" xr:uid="{F72FBF6F-09D1-E74A-9D0B-7D3E9B587E35}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>